--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.3704425804049</v>
+        <v>675.7643669870235</v>
       </c>
       <c r="AB2" t="n">
-        <v>763.9870731038875</v>
+        <v>924.6106195314485</v>
       </c>
       <c r="AC2" t="n">
-        <v>691.0732191094435</v>
+        <v>836.3670797025212</v>
       </c>
       <c r="AD2" t="n">
-        <v>558370.4425804049</v>
+        <v>675764.3669870235</v>
       </c>
       <c r="AE2" t="n">
-        <v>763987.0731038875</v>
+        <v>924610.6195314485</v>
       </c>
       <c r="AF2" t="n">
         <v>7.163410047982718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>691073.2191094435</v>
+        <v>836367.0797025212</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.6912214401268</v>
+        <v>296.1425394950064</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.5371742019838</v>
+        <v>405.195287423838</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.8045035414089</v>
+        <v>366.5240178872637</v>
       </c>
       <c r="AD3" t="n">
-        <v>227691.2214401268</v>
+        <v>296142.5394950064</v>
       </c>
       <c r="AE3" t="n">
-        <v>311537.1742019838</v>
+        <v>405195.2874238379</v>
       </c>
       <c r="AF3" t="n">
         <v>1.315608452099934e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.92916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>281804.5035414089</v>
+        <v>366524.0178872637</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.3555448391273</v>
+        <v>236.2308313831639</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.3481219920621</v>
+        <v>323.2214452670431</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.8826170160633</v>
+        <v>292.373644175</v>
       </c>
       <c r="AD4" t="n">
-        <v>187355.5448391273</v>
+        <v>236230.8313831639</v>
       </c>
       <c r="AE4" t="n">
-        <v>256348.1219920621</v>
+        <v>323221.4452670431</v>
       </c>
       <c r="AF4" t="n">
         <v>1.535516891181403e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.22083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>231882.6170160633</v>
+        <v>292373.644175</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.5481393430121</v>
+        <v>219.4907456947531</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.3514883018901</v>
+        <v>300.3169215077126</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.0807497692959</v>
+        <v>271.6550960165517</v>
       </c>
       <c r="AD5" t="n">
-        <v>170548.1393430121</v>
+        <v>219490.7456947531</v>
       </c>
       <c r="AE5" t="n">
-        <v>233351.4883018901</v>
+        <v>300316.9215077126</v>
       </c>
       <c r="AF5" t="n">
         <v>1.588930760077862e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.879166666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>211080.7497692959</v>
+        <v>271655.0960165517</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.9497365971383</v>
+        <v>462.9731937216262</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.3910153440222</v>
+        <v>633.4603485857174</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.2982587919124</v>
+        <v>573.0037819838788</v>
       </c>
       <c r="AD2" t="n">
-        <v>375949.7365971383</v>
+        <v>462973.1937216262</v>
       </c>
       <c r="AE2" t="n">
-        <v>514391.0153440222</v>
+        <v>633460.3485857174</v>
       </c>
       <c r="AF2" t="n">
         <v>9.977623569751654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>465298.2587919123</v>
+        <v>573003.7819838787</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.4881745404851</v>
+        <v>245.5373040223522</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.5295918006693</v>
+        <v>335.9549717045703</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.0467676008316</v>
+        <v>303.8919007209503</v>
       </c>
       <c r="AD3" t="n">
-        <v>187488.1745404851</v>
+        <v>245537.3040223522</v>
       </c>
       <c r="AE3" t="n">
-        <v>256529.5918006693</v>
+        <v>335954.9717045702</v>
       </c>
       <c r="AF3" t="n">
         <v>1.59197666218464e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>232046.7676008316</v>
+        <v>303891.9007209503</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.4330178303058</v>
+        <v>222.4479818933921</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.9845092680885</v>
+        <v>304.3631425387416</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.5123034713488</v>
+        <v>275.3151513912875</v>
       </c>
       <c r="AD4" t="n">
-        <v>164433.0178303058</v>
+        <v>222447.9818933921</v>
       </c>
       <c r="AE4" t="n">
-        <v>224984.5092680885</v>
+        <v>304363.1425387416</v>
       </c>
       <c r="AF4" t="n">
         <v>1.718716551795456e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.991666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>203512.3034713488</v>
+        <v>275315.1513912876</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.2844981649158</v>
+        <v>230.315903376789</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.4637392785339</v>
+        <v>315.1283798205181</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.7050946878197</v>
+        <v>285.0529695360001</v>
       </c>
       <c r="AD2" t="n">
-        <v>174284.4981649158</v>
+        <v>230315.903376789</v>
       </c>
       <c r="AE2" t="n">
-        <v>238463.7392785339</v>
+        <v>315128.3798205181</v>
       </c>
       <c r="AF2" t="n">
         <v>2.111368650430986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215705.0946878197</v>
+        <v>285052.9695360002</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.6153974262871</v>
+        <v>230.6468026381603</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.916490246187</v>
+        <v>315.5811307881712</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.1146357385602</v>
+        <v>285.4625105867406</v>
       </c>
       <c r="AD3" t="n">
-        <v>174615.3974262871</v>
+        <v>230646.8026381603</v>
       </c>
       <c r="AE3" t="n">
-        <v>238916.490246187</v>
+        <v>315581.1307881712</v>
       </c>
       <c r="AF3" t="n">
         <v>2.112979460005986e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.34583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216114.6357385602</v>
+        <v>285462.5105867406</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.148704400634</v>
+        <v>268.9768053638055</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.2712167011021</v>
+        <v>368.0259315179226</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.5681391774457</v>
+        <v>332.9020531414903</v>
       </c>
       <c r="AD2" t="n">
-        <v>212148.704400634</v>
+        <v>268976.8053638054</v>
       </c>
       <c r="AE2" t="n">
-        <v>290271.2167011021</v>
+        <v>368025.9315179226</v>
       </c>
       <c r="AF2" t="n">
         <v>1.668172697618347e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>262568.1391774457</v>
+        <v>332902.0531414903</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.0758394438821</v>
+        <v>223.9370947959739</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.6005343928428</v>
+        <v>306.4006125070779</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.7832202333208</v>
+        <v>277.1581680854535</v>
       </c>
       <c r="AD3" t="n">
-        <v>167075.8394438821</v>
+        <v>223937.0947959739</v>
       </c>
       <c r="AE3" t="n">
-        <v>228600.5343928428</v>
+        <v>306400.6125070779</v>
       </c>
       <c r="AF3" t="n">
         <v>1.957826145950478e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>206783.2202333208</v>
+        <v>277158.1680854535</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.8075060238739</v>
+        <v>239.2476453632318</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.4935387566096</v>
+        <v>327.3491832470095</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.4913483911504</v>
+        <v>296.1074366354764</v>
       </c>
       <c r="AD2" t="n">
-        <v>183807.5060238739</v>
+        <v>239247.6453632318</v>
       </c>
       <c r="AE2" t="n">
-        <v>251493.5387566096</v>
+        <v>327349.1832470095</v>
       </c>
       <c r="AF2" t="n">
         <v>2.221071458994259e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>227491.3483911504</v>
+        <v>296107.4366354764</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.0592313606563</v>
+        <v>501.3722698423928</v>
       </c>
       <c r="AB2" t="n">
-        <v>566.534107351718</v>
+        <v>685.9996585818287</v>
       </c>
       <c r="AC2" t="n">
-        <v>512.4648872816829</v>
+        <v>620.528813973346</v>
       </c>
       <c r="AD2" t="n">
-        <v>414059.2313606563</v>
+        <v>501372.2698423928</v>
       </c>
       <c r="AE2" t="n">
-        <v>566534.107351718</v>
+        <v>685999.6585818287</v>
       </c>
       <c r="AF2" t="n">
         <v>9.195221033142509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.225</v>
       </c>
       <c r="AH2" t="n">
-        <v>512464.8872816829</v>
+        <v>620528.813973346</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.4216119302253</v>
+        <v>253.9331010354348</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.0669120047192</v>
+        <v>347.4424715742869</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.24228040296</v>
+        <v>314.2830497259122</v>
       </c>
       <c r="AD3" t="n">
-        <v>205421.6119302252</v>
+        <v>253933.1010354348</v>
       </c>
       <c r="AE3" t="n">
-        <v>281066.9120047192</v>
+        <v>347442.4715742869</v>
       </c>
       <c r="AF3" t="n">
         <v>1.507305150197046e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.11666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>254242.28040296</v>
+        <v>314283.0497259122</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.7920399534918</v>
+        <v>223.9772813088899</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.8439832928552</v>
+        <v>306.4555974669534</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.1943119049806</v>
+        <v>277.2079053579304</v>
       </c>
       <c r="AD4" t="n">
-        <v>165792.0399534918</v>
+        <v>223977.2813088899</v>
       </c>
       <c r="AE4" t="n">
-        <v>226843.9832928552</v>
+        <v>306455.5974669534</v>
       </c>
       <c r="AF4" t="n">
         <v>1.685160400868712e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.945833333333335</v>
       </c>
       <c r="AH4" t="n">
-        <v>205194.3119049806</v>
+        <v>277207.9053579303</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.1136814563825</v>
+        <v>224.2989228117807</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.2840673869318</v>
+        <v>306.89568156103</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.5923949907805</v>
+        <v>277.6059884437303</v>
       </c>
       <c r="AD5" t="n">
-        <v>166113.6814563825</v>
+        <v>224298.9228117807</v>
       </c>
       <c r="AE5" t="n">
-        <v>227284.0673869318</v>
+        <v>306895.68156103</v>
       </c>
       <c r="AF5" t="n">
         <v>1.685120180323558e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.945833333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>205592.3949907805</v>
+        <v>277605.9884437303</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.7995895443366</v>
+        <v>259.0247328597532</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.5333923657989</v>
+        <v>354.4090668634262</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.0958194804506</v>
+        <v>320.5847629382295</v>
       </c>
       <c r="AD2" t="n">
-        <v>194799.5895443366</v>
+        <v>259024.7328597532</v>
       </c>
       <c r="AE2" t="n">
-        <v>266533.3923657989</v>
+        <v>354409.0668634262</v>
       </c>
       <c r="AF2" t="n">
         <v>2.261985608788945e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>241095.8194804506</v>
+        <v>320584.7629382295</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.1295939603062</v>
+        <v>356.8029788102698</v>
       </c>
       <c r="AB2" t="n">
-        <v>383.2856689019624</v>
+        <v>488.1935766446907</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.7054226067732</v>
+        <v>441.6010668737089</v>
       </c>
       <c r="AD2" t="n">
-        <v>280129.5939603063</v>
+        <v>356802.9788102699</v>
       </c>
       <c r="AE2" t="n">
-        <v>383285.6689019623</v>
+        <v>488193.5766446907</v>
       </c>
       <c r="AF2" t="n">
         <v>1.278628392922286e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>346705.4226067732</v>
+        <v>441601.0668737089</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.9240096145455</v>
+        <v>218.7989087248057</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.8657705896279</v>
+        <v>299.3703196437378</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.5459496772919</v>
+        <v>270.7988365059104</v>
       </c>
       <c r="AD3" t="n">
-        <v>170924.0096145455</v>
+        <v>218798.9087248057</v>
       </c>
       <c r="AE3" t="n">
-        <v>233865.7705896279</v>
+        <v>299370.3196437378</v>
       </c>
       <c r="AF3" t="n">
         <v>1.820510478405054e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>211545.9496772919</v>
+        <v>270798.8365059104</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.4861801980104</v>
+        <v>218.3610793082706</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.2667130662543</v>
+        <v>298.7712621203642</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.0040653631664</v>
+        <v>270.2569521917849</v>
       </c>
       <c r="AD4" t="n">
-        <v>170486.1801980104</v>
+        <v>218361.0793082706</v>
       </c>
       <c r="AE4" t="n">
-        <v>233266.7130662543</v>
+        <v>298771.2621203642</v>
       </c>
       <c r="AF4" t="n">
         <v>1.829204972209011e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>211004.0653631664</v>
+        <v>270256.9521917849</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.2208136240458</v>
+        <v>419.3622172837809</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.2416149171742</v>
+        <v>573.7898866429647</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.5532923707124</v>
+        <v>519.0281851809232</v>
       </c>
       <c r="AD2" t="n">
-        <v>342220.8136240458</v>
+        <v>419362.2172837809</v>
       </c>
       <c r="AE2" t="n">
-        <v>468241.6149171742</v>
+        <v>573789.8866429647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.079960566985197e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.32083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>423553.2923707124</v>
+        <v>519028.1851809232</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.8659135510502</v>
+        <v>229.1555311369801</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.4687221613933</v>
+        <v>313.5407073300021</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.8506546429148</v>
+        <v>283.6168222796662</v>
       </c>
       <c r="AD3" t="n">
-        <v>180865.9135510502</v>
+        <v>229155.5311369801</v>
       </c>
       <c r="AE3" t="n">
-        <v>247468.7221613933</v>
+        <v>313540.7073300021</v>
       </c>
       <c r="AF3" t="n">
         <v>1.671487403451725e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.54583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>223850.6546429148</v>
+        <v>283616.8222796661</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.1421081933961</v>
+        <v>221.3302405528408</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.9006709208128</v>
+        <v>302.8337995253324</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.2912033803788</v>
+        <v>273.9317667286312</v>
       </c>
       <c r="AD4" t="n">
-        <v>173142.1081933961</v>
+        <v>221330.2405528408</v>
       </c>
       <c r="AE4" t="n">
-        <v>236900.6709208128</v>
+        <v>302833.7995253324</v>
       </c>
       <c r="AF4" t="n">
         <v>1.750763759851516e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.06666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>214291.2033803788</v>
+        <v>273931.7667286312</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.4021995626106</v>
+        <v>610.7592188883131</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.7770979792095</v>
+        <v>835.6677080780596</v>
       </c>
       <c r="AC2" t="n">
-        <v>623.0411784528014</v>
+        <v>755.9127548860836</v>
       </c>
       <c r="AD2" t="n">
-        <v>503402.1995626106</v>
+        <v>610759.218888313</v>
       </c>
       <c r="AE2" t="n">
-        <v>688777.0979792095</v>
+        <v>835667.7080780596</v>
       </c>
       <c r="AF2" t="n">
         <v>7.803863163153071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>623041.1784528014</v>
+        <v>755912.7548860835</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.1639365991242</v>
+        <v>278.740946459754</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.2380110021591</v>
+        <v>381.3856601289028</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.4882780224059</v>
+        <v>344.9867480043354</v>
       </c>
       <c r="AD3" t="n">
-        <v>220163.9365991242</v>
+        <v>278740.946459754</v>
       </c>
       <c r="AE3" t="n">
-        <v>301238.0110021591</v>
+        <v>381385.6601289028</v>
       </c>
       <c r="AF3" t="n">
         <v>1.374299797277886e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>272488.2780224059</v>
+        <v>344986.7480043354</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.0159047161727</v>
+        <v>230.7627597923236</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.0421908075427</v>
+        <v>315.739788482166</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.2739536498533</v>
+        <v>285.6060262130979</v>
       </c>
       <c r="AD4" t="n">
-        <v>182015.9047161727</v>
+        <v>230762.7597923236</v>
       </c>
       <c r="AE4" t="n">
-        <v>249042.1908075427</v>
+        <v>315739.788482166</v>
       </c>
       <c r="AF4" t="n">
         <v>1.592114220754449e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>225273.9536498533</v>
+        <v>285606.026213098</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.0373123318182</v>
+        <v>217.8514872156736</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.2843081321921</v>
+        <v>298.0740157376569</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.2108583736877</v>
+        <v>269.6262500252514</v>
       </c>
       <c r="AD5" t="n">
-        <v>169037.3123318182</v>
+        <v>217851.4872156736</v>
       </c>
       <c r="AE5" t="n">
-        <v>231284.3081321921</v>
+        <v>298074.0157376569</v>
       </c>
       <c r="AF5" t="n">
         <v>1.620533157715816e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.887500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>209210.8583736877</v>
+        <v>269626.2500252514</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.9741918498123</v>
+        <v>294.059489396128</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.2385438522601</v>
+        <v>402.3451663808679</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.2936722987511</v>
+        <v>363.9459083964646</v>
       </c>
       <c r="AD2" t="n">
-        <v>236974.1918498123</v>
+        <v>294059.489396128</v>
       </c>
       <c r="AE2" t="n">
-        <v>324238.5438522601</v>
+        <v>402345.1663808679</v>
       </c>
       <c r="AF2" t="n">
         <v>1.518963000499811e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>293293.6722987511</v>
+        <v>363945.9083964647</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.1083321754551</v>
+        <v>215.6397223137804</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.0132364985448</v>
+        <v>295.0477814227073</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.0610960327949</v>
+        <v>266.8888352659731</v>
       </c>
       <c r="AD3" t="n">
-        <v>168108.3321754551</v>
+        <v>215639.7223137804</v>
       </c>
       <c r="AE3" t="n">
-        <v>230013.2364985447</v>
+        <v>295047.7814227073</v>
       </c>
       <c r="AF3" t="n">
         <v>1.912079292763996e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.44583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>208061.0960327949</v>
+        <v>266888.8352659731</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.4763039286815</v>
+        <v>234.7804189140764</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.1991528539339</v>
+        <v>321.2369269391564</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.8931284412889</v>
+        <v>290.5785254910373</v>
       </c>
       <c r="AD2" t="n">
-        <v>178476.3039286815</v>
+        <v>234780.4189140764</v>
       </c>
       <c r="AE2" t="n">
-        <v>244199.1528539339</v>
+        <v>321236.9269391564</v>
       </c>
       <c r="AF2" t="n">
         <v>2.005723573662042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>220893.1284412889</v>
+        <v>290578.5254910373</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.1441039751285</v>
+        <v>221.5155387682278</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.9574487023411</v>
+        <v>303.0873327184051</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.3923869315257</v>
+        <v>274.1611030695933</v>
       </c>
       <c r="AD3" t="n">
-        <v>165144.1039751285</v>
+        <v>221515.5387682278</v>
       </c>
       <c r="AE3" t="n">
-        <v>225957.4487023411</v>
+        <v>303087.3327184051</v>
       </c>
       <c r="AF3" t="n">
         <v>2.06585058083031e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.99583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>204392.3869315257</v>
+        <v>274161.1030695933</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.8562288082294</v>
+        <v>229.6920333141425</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.8777622508053</v>
+        <v>314.274773277601</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.1750424851935</v>
+        <v>284.2808300034944</v>
       </c>
       <c r="AD2" t="n">
-        <v>173856.2288082294</v>
+        <v>229692.0333141425</v>
       </c>
       <c r="AE2" t="n">
-        <v>237877.7622508053</v>
+        <v>314274.7732776009</v>
       </c>
       <c r="AF2" t="n">
         <v>2.17103005907692e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>215175.0424851935</v>
+        <v>284280.8300034945</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.5942965167335</v>
+        <v>281.5018547154668</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.4079190249432</v>
+        <v>385.1632566070449</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.1689878058168</v>
+        <v>348.4038159764936</v>
       </c>
       <c r="AD2" t="n">
-        <v>208594.2965167335</v>
+        <v>281501.8547154668</v>
       </c>
       <c r="AE2" t="n">
-        <v>285407.9190249432</v>
+        <v>385163.2566070449</v>
       </c>
       <c r="AF2" t="n">
         <v>2.262422562590931e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>258168.9878058168</v>
+        <v>348403.8159764936</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.4300781933693</v>
+        <v>386.2920745046217</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.3758840757732</v>
+        <v>528.5418583407873</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.969483911366</v>
+        <v>478.098565193899</v>
       </c>
       <c r="AD2" t="n">
-        <v>309430.0781933693</v>
+        <v>386292.0745046217</v>
       </c>
       <c r="AE2" t="n">
-        <v>423375.8840757732</v>
+        <v>528541.8583407872</v>
       </c>
       <c r="AF2" t="n">
         <v>1.176292068976027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>382969.483911366</v>
+        <v>478098.565193899</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.0525045029236</v>
+        <v>223.0873606563045</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.514559432244</v>
+        <v>305.2379687695582</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.6556260408954</v>
+        <v>276.1064854344617</v>
       </c>
       <c r="AD3" t="n">
-        <v>175052.5045029236</v>
+        <v>223087.3606563045</v>
       </c>
       <c r="AE3" t="n">
-        <v>239514.559432244</v>
+        <v>305237.9687695582</v>
       </c>
       <c r="AF3" t="n">
         <v>1.750975751086416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.35</v>
       </c>
       <c r="AH3" t="n">
-        <v>216655.6260408954</v>
+        <v>276106.4854344617</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.9691083294033</v>
+        <v>220.0039644827842</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.2957207577969</v>
+        <v>301.0191300951112</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.839427408359</v>
+        <v>272.2902868019252</v>
       </c>
       <c r="AD4" t="n">
-        <v>171969.1083294033</v>
+        <v>220003.9644827842</v>
       </c>
       <c r="AE4" t="n">
-        <v>235295.7207577969</v>
+        <v>301019.1300951112</v>
       </c>
       <c r="AF4" t="n">
         <v>1.787165338091854e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.14166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>212839.427408359</v>
+        <v>272290.2868019252</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.4801596329382</v>
+        <v>552.7419623360522</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.2080487762407</v>
+        <v>756.285938122541</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.7299472790256</v>
+        <v>684.1070696421056</v>
       </c>
       <c r="AD2" t="n">
-        <v>455480.1596329382</v>
+        <v>552741.9623360522</v>
       </c>
       <c r="AE2" t="n">
-        <v>623208.0487762408</v>
+        <v>756285.9381225409</v>
       </c>
       <c r="AF2" t="n">
         <v>8.486090726936529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>563729.9472790256</v>
+        <v>684107.0696421056</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.3231087793311</v>
+        <v>270.639596310608</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.5098444662135</v>
+        <v>370.301035448497</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.7839926435712</v>
+        <v>334.9600243460591</v>
       </c>
       <c r="AD3" t="n">
-        <v>212323.1087793311</v>
+        <v>270639.596310608</v>
       </c>
       <c r="AE3" t="n">
-        <v>290509.8444662135</v>
+        <v>370301.035448497</v>
       </c>
       <c r="AF3" t="n">
         <v>1.441586011220314e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.35833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>262783.9926435712</v>
+        <v>334960.0243460591</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.3229890559846</v>
+        <v>226.6726309761818</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.3069395124782</v>
+        <v>310.1434937921752</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.3267684432935</v>
+        <v>280.5438340338692</v>
       </c>
       <c r="AD4" t="n">
-        <v>168322.9890559846</v>
+        <v>226672.6309761817</v>
       </c>
       <c r="AE4" t="n">
-        <v>230306.9395124782</v>
+        <v>310143.4937921752</v>
       </c>
       <c r="AF4" t="n">
         <v>1.642743031925521e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.970833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>208326.7684432935</v>
+        <v>280543.8340338692</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.4663027190304</v>
+        <v>225.8159446392275</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.1347834719242</v>
+        <v>308.9713377516211</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.2664813301182</v>
+        <v>279.4835469206939</v>
       </c>
       <c r="AD5" t="n">
-        <v>167466.3027190304</v>
+        <v>225815.9446392275</v>
       </c>
       <c r="AE5" t="n">
-        <v>229134.7834719242</v>
+        <v>308971.3377516211</v>
       </c>
       <c r="AF5" t="n">
         <v>1.653512282350145e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.904166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>207266.4813301182</v>
+        <v>279483.5469206939</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.2693044521705</v>
+        <v>336.4690088641036</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.2707240381981</v>
+        <v>460.3717418929041</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.9368163406367</v>
+        <v>416.4345089824425</v>
       </c>
       <c r="AD2" t="n">
-        <v>255269.3044521705</v>
+        <v>336469.0088641036</v>
       </c>
       <c r="AE2" t="n">
-        <v>349270.7240381981</v>
+        <v>460371.7418929042</v>
       </c>
       <c r="AF2" t="n">
         <v>2.171626497205672e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>315936.8163406367</v>
+        <v>416434.5089824426</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.2254835755517</v>
+        <v>245.884130738638</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.9066546671114</v>
+        <v>336.4295153187071</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.1969669235299</v>
+        <v>304.3211545585802</v>
       </c>
       <c r="AD2" t="n">
-        <v>189225.4835755517</v>
+        <v>245884.1307386381</v>
       </c>
       <c r="AE2" t="n">
-        <v>258906.6546671114</v>
+        <v>336429.5153187071</v>
       </c>
       <c r="AF2" t="n">
         <v>1.833801943798921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>234196.9669235299</v>
+        <v>304321.1545585802</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.1421985139573</v>
+        <v>222.7666802582629</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.3230856831894</v>
+        <v>304.7991997015372</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.6276894356058</v>
+        <v>275.7095918704762</v>
       </c>
       <c r="AD3" t="n">
-        <v>166142.1985139573</v>
+        <v>222766.6802582629</v>
       </c>
       <c r="AE3" t="n">
-        <v>227323.0856831894</v>
+        <v>304799.1997015373</v>
       </c>
       <c r="AF3" t="n">
         <v>2.009712190640079e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205627.6894356058</v>
+        <v>275709.5918704762</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.8286639988007</v>
+        <v>319.7132996426591</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.9313320964416</v>
+        <v>437.4458413264039</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.9161312789344</v>
+        <v>395.6966241893055</v>
       </c>
       <c r="AD2" t="n">
-        <v>252828.6639988007</v>
+        <v>319713.2996426591</v>
       </c>
       <c r="AE2" t="n">
-        <v>345931.3320964416</v>
+        <v>437445.8413264039</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391960164642672e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>312916.1312789344</v>
+        <v>395696.6241893055</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.0240181772579</v>
+        <v>216.7314381151638</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.266118483426</v>
+        <v>296.5415151452613</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.1944047194704</v>
+        <v>268.2400091385155</v>
       </c>
       <c r="AD3" t="n">
-        <v>169024.0181772579</v>
+        <v>216731.4381151638</v>
       </c>
       <c r="AE3" t="n">
-        <v>231266.118483426</v>
+        <v>296541.5151452612</v>
       </c>
       <c r="AF3" t="n">
         <v>1.8704348993431e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>209194.4047194704</v>
+        <v>268240.0091385155</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.3977412911626</v>
+        <v>217.1051612290685</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.7774629353703</v>
+        <v>297.0528595972056</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.6569471745978</v>
+        <v>268.7025515936429</v>
       </c>
       <c r="AD4" t="n">
-        <v>169397.7412911626</v>
+        <v>217105.1612290685</v>
       </c>
       <c r="AE4" t="n">
-        <v>231777.4629353703</v>
+        <v>297052.8595972055</v>
       </c>
       <c r="AF4" t="n">
         <v>1.870018311105478e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>209656.9471745978</v>
+        <v>268702.5515936429</v>
       </c>
     </row>
   </sheetData>
